--- a/Documentação/Produtos.xlsx
+++ b/Documentação/Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCCScrolls\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7495AC0D-A7E3-4756-BD68-74A8056516C4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD4A5F58-E5E6-44FB-992E-86A0BE4344B4}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Livros" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="Camisetas" sheetId="2" r:id="rId4"/>
     <sheet name="Acessórios" sheetId="3" r:id="rId5"/>
     <sheet name="Mangá" sheetId="7" r:id="rId6"/>
-    <sheet name="Figures" sheetId="4" r:id="rId7"/>
+    <sheet name="Colecionáveis" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="695">
   <si>
     <t>Camisetas</t>
   </si>
@@ -1042,13 +1042,1087 @@
   </si>
   <si>
     <t>CAMISA FULL PRINT UNIFORME - SASUKE UCHIHA - NARUTO</t>
+  </si>
+  <si>
+    <t>visual novel</t>
+  </si>
+  <si>
+    <t>mangá</t>
+  </si>
+  <si>
+    <t>Holy Avenger — Edição Definitiva Vol. 1</t>
+  </si>
+  <si>
+    <t>Holy Avenger — Edição Definitiva Vol. 2</t>
+  </si>
+  <si>
+    <t>Holy Avenger — Edição Definitiva Vol. 3</t>
+  </si>
+  <si>
+    <t>Holy Avenger — Edição Definitiva Vol. 4</t>
+  </si>
+  <si>
+    <t>20 Deuses 1</t>
+  </si>
+  <si>
+    <t>Ledd Vol. 1</t>
+  </si>
+  <si>
+    <t>Ledd Vol. 2</t>
+  </si>
+  <si>
+    <t>Ledd Vol. 3</t>
+  </si>
+  <si>
+    <t>Ledd Vol. 4</t>
+  </si>
+  <si>
+    <t>Akame Ga Kill! - Edição 1</t>
+  </si>
+  <si>
+    <t>Akame Ga Kill! - Edição 3</t>
+  </si>
+  <si>
+    <t>Akame Ga Kill! - Edição 2</t>
+  </si>
+  <si>
+    <t>Assassination Classroom - Edição 1</t>
+  </si>
+  <si>
+    <t>Assassination Classroom - Edição 2</t>
+  </si>
+  <si>
+    <t>Assassination Classroom - Edição 3</t>
+  </si>
+  <si>
+    <t>Highschool of the Dead - Edição 1</t>
+  </si>
+  <si>
+    <t>Highschool of the Dead - Edição 2</t>
+  </si>
+  <si>
+    <t>Highschool of the Dead - Edição 3</t>
+  </si>
+  <si>
+    <t>High School DxD - Edição 1</t>
+  </si>
+  <si>
+    <t>High School DxD - Edição 3</t>
+  </si>
+  <si>
+    <t>High School DxD - Edição 2</t>
+  </si>
+  <si>
+    <t>Fate/Stay Night - Edição 1</t>
+  </si>
+  <si>
+    <t>Fate/Stay Night - Edição 2</t>
+  </si>
+  <si>
+    <t>Fate/Stay Night - Edição 3</t>
+  </si>
+  <si>
+    <t>Dragon Ball - Edição 1</t>
+  </si>
+  <si>
+    <t>Dragon Ball - Edição 3</t>
+  </si>
+  <si>
+    <t>Dragon Ball - Edição 2</t>
+  </si>
+  <si>
+    <t>Black Rock Shooter - Innocent Soul  Ed. 1</t>
+  </si>
+  <si>
+    <t>Black Rock Shooter - The Game Ed. 1</t>
+  </si>
+  <si>
+    <t>Black Rock Shooter - The Game Ed. 2</t>
+  </si>
+  <si>
+    <t>Black Rock Shooter - Innocent Soul  Ed. 3</t>
+  </si>
+  <si>
+    <t>Black Rock Shooter - Innocent Soul  Ed. 2</t>
+  </si>
+  <si>
+    <t>Berserk - Edição 1</t>
+  </si>
+  <si>
+    <t>Berserk - Edição 3</t>
+  </si>
+  <si>
+    <t>Berserk - Edição 2</t>
+  </si>
+  <si>
+    <t>Beelzebub - Edição 1</t>
+  </si>
+  <si>
+    <t>Beelzebub - Edição 3</t>
+  </si>
+  <si>
+    <t>Beelzebub - Edição 2</t>
+  </si>
+  <si>
+    <t>Ataque dos Titãs - Edição 1</t>
+  </si>
+  <si>
+    <t>Ataque dos Titãs - Edição 3</t>
+  </si>
+  <si>
+    <t>Ataque dos Titãs - Edição 2</t>
+  </si>
+  <si>
+    <t>Kuroko no Basket - Edição 1</t>
+  </si>
+  <si>
+    <t>Kuroko no Basket - Edição 3</t>
+  </si>
+  <si>
+    <t>Kuroko no Basket - Edição 2</t>
+  </si>
+  <si>
+    <t>Mob Psycho 100 - Edição 1</t>
+  </si>
+  <si>
+    <t>Mob Psycho 100 - Edição 3</t>
+  </si>
+  <si>
+    <t>Mob Psycho 100 - Edição 2</t>
+  </si>
+  <si>
+    <t>Naruto - Edição 1</t>
+  </si>
+  <si>
+    <t>Naruto - Edição 3</t>
+  </si>
+  <si>
+    <t>Naruto - Edição 2</t>
+  </si>
+  <si>
+    <t>Nisekoi - Edição 1</t>
+  </si>
+  <si>
+    <t>Nisekoi - Edição 2</t>
+  </si>
+  <si>
+    <t>Nisekoi - Edição 3</t>
+  </si>
+  <si>
+    <t>Noragami - Edição 1</t>
+  </si>
+  <si>
+    <t>Noragami - Edição 3</t>
+  </si>
+  <si>
+    <t>Noragami - Edição 2</t>
+  </si>
+  <si>
+    <t>One Piece - Edição 1</t>
+  </si>
+  <si>
+    <t>One Piece - Edição 3</t>
+  </si>
+  <si>
+    <t>One Piece - Edição 2</t>
+  </si>
+  <si>
+    <t>One Punch Man - Edição 1</t>
+  </si>
+  <si>
+    <t>One Punch Man - Edição 3</t>
+  </si>
+  <si>
+    <t>One Punch Man - Edição 2</t>
+  </si>
+  <si>
+    <t>Box One-Punch Man - Volumes 1 a 10</t>
+  </si>
+  <si>
+    <t>Ore Monogatari!! - Edição 1</t>
+  </si>
+  <si>
+    <t>Ore Monogatari!! - Edição 3</t>
+  </si>
+  <si>
+    <t>Ore Monogatari!! - Edição 2</t>
+  </si>
+  <si>
+    <t>Pokémon Yellow - Edição 1</t>
+  </si>
+  <si>
+    <t>Pokémon Yellow - Edição 4</t>
+  </si>
+  <si>
+    <t>Pokémon Yellow - Edição 3</t>
+  </si>
+  <si>
+    <t>Pokémon Yellow - Edição 2</t>
+  </si>
+  <si>
+    <t>Pokémon: Black &amp; White - Edição 1</t>
+  </si>
+  <si>
+    <t>Pokémon: Black &amp; White - Edição 3</t>
+  </si>
+  <si>
+    <t>Pokémon: Black &amp; White - Edição 2</t>
+  </si>
+  <si>
+    <t>Sword Art Online: Fairy Dance - Edição 1</t>
+  </si>
+  <si>
+    <t>Sword Art Online: Fairy Dance - Edição 2</t>
+  </si>
+  <si>
+    <t>Sword Art Online: Fairy Dance - Edição 3</t>
+  </si>
+  <si>
+    <t>Your Lie in April - Edição 1</t>
+  </si>
+  <si>
+    <t>Your Lie in April - Edição 3</t>
+  </si>
+  <si>
+    <t>Your Lie in April - Edição 2</t>
+  </si>
+  <si>
+    <t>The Testament Of Sister New Devil - Edição 1</t>
+  </si>
+  <si>
+    <t>The Testament Of Sister New Devil - Edição 3</t>
+  </si>
+  <si>
+    <t>The Testament Of Sister New Devil - Edição 2</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul - Edição 1</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul - Edição 3</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul - Edição 2</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul: Re - Edição 1</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul: Re - Edição 3</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul: Re - Edição 2</t>
+  </si>
+  <si>
+    <t>Tutor Hitman Reborn! - Edição 1</t>
+  </si>
+  <si>
+    <t>Tutor Hitman Reborn! - Edição 3</t>
+  </si>
+  <si>
+    <t>Tutor Hitman Reborn! - Edição 2</t>
+  </si>
+  <si>
+    <t>Vagabond - Edição 1</t>
+  </si>
+  <si>
+    <t>Vagabond - Edição 3</t>
+  </si>
+  <si>
+    <t>Vagabond - Edição 2</t>
+  </si>
+  <si>
+    <t>Yo-Kai Watch - Edição 1</t>
+  </si>
+  <si>
+    <t>Yo-Kai Watch - Edição 3</t>
+  </si>
+  <si>
+    <t>Yo-Kai Watch - Edição 2</t>
+  </si>
+  <si>
+    <t>The Ghost in the Shell 2.0 – Manmachine Interface</t>
+  </si>
+  <si>
+    <t>Blue Exorcist #01</t>
+  </si>
+  <si>
+    <t>Blue Exorcist #03</t>
+  </si>
+  <si>
+    <t>Blue Exorcist #02</t>
+  </si>
+  <si>
+    <t>Blood Blockade Battlefront #01</t>
+  </si>
+  <si>
+    <t>Blood Blockade Battlefront #03</t>
+  </si>
+  <si>
+    <t>Blood Blockade Battlefront #02</t>
+  </si>
+  <si>
+    <t>Fairy Tail #01</t>
+  </si>
+  <si>
+    <t>Fairy Tail #02</t>
+  </si>
+  <si>
+    <t>Fairy Tail #03</t>
+  </si>
+  <si>
+    <t>My Hero Academia #01</t>
+  </si>
+  <si>
+    <t>My Hero Academia #02</t>
+  </si>
+  <si>
+    <t>My Hero Academia #03</t>
+  </si>
+  <si>
+    <t>The Ghost in the Shell</t>
+  </si>
+  <si>
+    <t>Zetman #01</t>
+  </si>
+  <si>
+    <t>Zetman #02</t>
+  </si>
+  <si>
+    <t>Zetman #03</t>
+  </si>
+  <si>
+    <t>Ultraman #01</t>
+  </si>
+  <si>
+    <t>Ultraman #02</t>
+  </si>
+  <si>
+    <t>Ultraman #03</t>
+  </si>
+  <si>
+    <t>To Love-Ru #01</t>
+  </si>
+  <si>
+    <t>To Love-Ru #02</t>
+  </si>
+  <si>
+    <t>To Love-Ru #03</t>
+  </si>
+  <si>
+    <t>The Seven Deadly Sins #01</t>
+  </si>
+  <si>
+    <t>The Seven Deadly Sins #02</t>
+  </si>
+  <si>
+    <t>The Seven Deadly Sins #03</t>
+  </si>
+  <si>
+    <t>Highschool of the Head</t>
+  </si>
+  <si>
+    <t>Your Name. Another Side: Earthbound (Light Novel)</t>
+  </si>
+  <si>
+    <t>Clockwork Planet (Light Novel) Vol. 1</t>
+  </si>
+  <si>
+    <t>Toradora! (Light Novel) Vol. 1</t>
+  </si>
+  <si>
+    <t>Sword Art Online 1: Aincrad (Light Novel)</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated As A Slime, Vol. 1 (Light Novel)</t>
+  </si>
+  <si>
+    <t>Toradora! (Light Novel) Vol. 2</t>
+  </si>
+  <si>
+    <t>Toradora! (Light Novel) Vol. 3</t>
+  </si>
+  <si>
+    <t>RE: Zero -Starting Life In Another World- Ex, Vol. 1 (Light Novel) - The Dream Of The Lion King</t>
+  </si>
+  <si>
+    <t>No Game No Life, Vol. 1 (Light Novel)</t>
+  </si>
+  <si>
+    <t>No Game No Life, Vol. 2 (Light Novel)</t>
+  </si>
+  <si>
+    <t>No Game No Life, Vol. 3 (Light Novel)</t>
+  </si>
+  <si>
+    <t>Durarara!!, Vol. 1 (Light Novel)</t>
+  </si>
+  <si>
+    <t>Is It Wrong To Try To Pick Up Girls In A Dungeon?, Vol. 1 (Light Novel)</t>
+  </si>
+  <si>
+    <t>Is It Wrong To Try To Pick Up Girls In A Dungeon?, Vol. 2 (Light Novel)</t>
+  </si>
+  <si>
+    <t>Is It Wrong To Try To Pick Up Girls In A Dungeon?, Vol. 3 (Light Novel)</t>
+  </si>
+  <si>
+    <t>Another Episode S / 0 (Light Novel)</t>
+  </si>
+  <si>
+    <t>Chaveiros</t>
+  </si>
+  <si>
+    <t>Pingentes</t>
+  </si>
+  <si>
+    <t>BONÉ SEVEN KINGS S/N - AJUSTÁVEL</t>
+  </si>
+  <si>
+    <t>BONÉ NEW ERA 950 STAR WARS PRINT BLK - AJUSTÁVEL</t>
+  </si>
+  <si>
+    <t>COLAR MARTELO RUFF GHANOR</t>
+  </si>
+  <si>
+    <t>DOGTAG DE METAL ESQUADRÃO NOOB</t>
+  </si>
+  <si>
+    <t>DOGTAG DE METAL PROTOCOLO BLUEHAND VAZADA</t>
+  </si>
+  <si>
+    <t>COLAR NOSSO CORAÇÃO 8 BIT</t>
+  </si>
+  <si>
+    <t>COLAR GRANADA OZOB</t>
+  </si>
+  <si>
+    <t>CHAVEIRO PAI DE TODOS</t>
+  </si>
+  <si>
+    <t>CHAVEIRO DE METAL MERCENÁRIO TAGARELA</t>
+  </si>
+  <si>
+    <t>CHAVEIRO CUTE DRÓIDE 8</t>
+  </si>
+  <si>
+    <t>CHAVEIRO DE METAL STAR STATION DS-1</t>
+  </si>
+  <si>
+    <t>CHAVEIRO POKE</t>
+  </si>
+  <si>
+    <t>CHAVEIRO DE METAL ARC REACTOR</t>
+  </si>
+  <si>
+    <t>CHAVEIRO DE METAL MJOLNIR</t>
+  </si>
+  <si>
+    <t>CHAVEIRO "Q" - ESQUADRÃO SUICIDA DC UNIVERSE</t>
+  </si>
+  <si>
+    <t>CHAVEIRO FURY ROAD WHEELS</t>
+  </si>
+  <si>
+    <t>CHAVEIRO ABRIDOR DE METAL I LOVE YOU - I KNOW</t>
+  </si>
+  <si>
+    <t>CHAVEIRO FIRE HEART</t>
+  </si>
+  <si>
+    <t>CHAVEIRO BLOCO DE INTERROGAÇÃO</t>
+  </si>
+  <si>
+    <t>Capas de celular</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR WARRIORS</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR ROBOTIC EVIL</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR SO LONG</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR BACON</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR XENOBABY</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR ROCKY</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR MATEMÁTICA</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR BURPMAN</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR I HURT MYSELF</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR OZOB SKULL</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR OS CAVALEIROS QUE DIZEM NI</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR BTTF BLUEPRINT</t>
+  </si>
+  <si>
+    <t>CASE PARA CELULAR CTHULHU</t>
+  </si>
+  <si>
+    <t>Bonés</t>
+  </si>
+  <si>
+    <t>geek10</t>
+  </si>
+  <si>
+    <t>Kit Porta Chaves e Chaveiros Game Retrô</t>
+  </si>
+  <si>
+    <t>Kit Super Porta Chaves Video Game e Chaveiros</t>
+  </si>
+  <si>
+    <t>Chaveiro Mulher Maravilha</t>
+  </si>
+  <si>
+    <t>Chaveiro Machado</t>
+  </si>
+  <si>
+    <t>Conjunto com 4 Porta Chaves Formas</t>
+  </si>
+  <si>
+    <t>Bandanas</t>
+  </si>
+  <si>
+    <t>lojasbuscanimes</t>
+  </si>
+  <si>
+    <t>BANDANA ITACHI - VILA DA FOLHA RENEGADA</t>
+  </si>
+  <si>
+    <t>BANDANA DA ALIANÇA SHINOBI</t>
+  </si>
+  <si>
+    <t>BANDANA VILA DA FOLHA VERMELHA - SARADA - SAKURA - ROCK LEE</t>
+  </si>
+  <si>
+    <t>BANDANA PAIN - VILA DA CHUVA RENEGADA</t>
+  </si>
+  <si>
+    <t>COLAR NUVEM DA AKATSUKI</t>
+  </si>
+  <si>
+    <t>COLAR MEDALHA NARUTO</t>
+  </si>
+  <si>
+    <t>COLAR SIMBOLO DO CLÃ UCHIHA</t>
+  </si>
+  <si>
+    <t>COLAR FOICE DO HIDAN</t>
+  </si>
+  <si>
+    <t>PAR DE BRINCOS SHINIGAME</t>
+  </si>
+  <si>
+    <t>COLAR DA MATSUMOTO</t>
+  </si>
+  <si>
+    <t>COLAR MÁSCARA ICHIGO HOLLOW</t>
+  </si>
+  <si>
+    <t>COLAR TRIDENTE DE POSEIDON</t>
+  </si>
+  <si>
+    <t>RELÓGIO ALQUIMISTA COLAR</t>
+  </si>
+  <si>
+    <t>COLAR CÍRRCULO DE TRANSMUTAÇÃO HUMANA</t>
+  </si>
+  <si>
+    <t>COLAR MEDALHA DE MILITAR</t>
+  </si>
+  <si>
+    <t>COLAR MEDALHA ALQUIMISTA</t>
+  </si>
+  <si>
+    <t>COLAR CIRCULO DE TRANSMUTAÇÃO</t>
+  </si>
+  <si>
+    <t>COLAR ALQUIMISTAS I</t>
+  </si>
+  <si>
+    <t>COLAR SIMBOLO MILITAR</t>
+  </si>
+  <si>
+    <t>COLAR HOMUNCULOS II</t>
+  </si>
+  <si>
+    <t>KEYBLADE FAIRY HARP</t>
+  </si>
+  <si>
+    <t>CHAVEIRO SKYWARD SWORD</t>
+  </si>
+  <si>
+    <t>COLAR OMEGA - LOGO PRATEADA (GOD OF WAR)</t>
+  </si>
+  <si>
+    <t>COLAR LARSA FERRINAS</t>
+  </si>
+  <si>
+    <t>COLAR ESPADA DO CLOUD (ADVENT CHILDREN)</t>
+  </si>
+  <si>
+    <t>COLAR ESPADA DO DANTE - FORCE EDGE (DEVIL MAY CRY)</t>
+  </si>
+  <si>
+    <t>CHAVEIRO ESPADA DO DANTE</t>
+  </si>
+  <si>
+    <t>geekyard</t>
+  </si>
+  <si>
+    <t>Chaveiro Morty - Funko Pop Pocket Rick and Morty</t>
+  </si>
+  <si>
+    <t>Chaveiro Newt Scamander - Funko Pop Pocket Fantastic Beasts / Animais Fantásticos</t>
+  </si>
+  <si>
+    <t>Chaveiro Cinderela - Funko Pop Pocket Disney Cinderella</t>
+  </si>
+  <si>
+    <t>Chaveiro Bullet 3 em 1 - Caneta, Lanterna LED e Laser Pointer</t>
+  </si>
+  <si>
+    <t>Chaveiro Rick - Funko Pop Pocket Rick and Morty</t>
+  </si>
+  <si>
+    <t>Chaveiro Picareta de Diamante</t>
+  </si>
+  <si>
+    <t>Rick Grimes - Chaveiro Funko Pop Pocket The Walking Dead</t>
+  </si>
+  <si>
+    <t>Chaveiro Hulk - Funko Pop Pocket Thor Ragnarok</t>
+  </si>
+  <si>
+    <t>Daryl Dixon - Chaveiro Funko Pop Pocket The Walking Dead</t>
+  </si>
+  <si>
+    <t>Funko</t>
+  </si>
+  <si>
+    <t>Anime</t>
+  </si>
+  <si>
+    <t>Geek</t>
+  </si>
+  <si>
+    <t>nredstore</t>
+  </si>
+  <si>
+    <t>DTC TOYS METALS DIECAST SUICIDE SQUAD - DEADSHOT 15CM</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - DARYL - THE WALKING DEAD</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - WEAPONIZED MORTY - RICK E MORTY</t>
+  </si>
+  <si>
+    <t>ALIEN SERIES6 NECA - AMANDA RIPLEY JUMP SUIT</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - DART - STRANGER THINGS</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - DUSTIN - STRANGER THINGS</t>
+  </si>
+  <si>
+    <t>ROCKET GUARDIANS OF THE GALAXY - 1/6 FIGURE</t>
+  </si>
+  <si>
+    <t>DRAGONBALL Z PICCOLO - DOD 1/6 FIGURE</t>
+  </si>
+  <si>
+    <t>SIRIUS BLACK HARRY POTTER 1/6 FIGURE</t>
+  </si>
+  <si>
+    <t>SAILOR MOON JUPITER FIGUARTSZERO</t>
+  </si>
+  <si>
+    <t>GROOT GUARDIANS OF THE GALAXY - 1/6 FIGURE</t>
+  </si>
+  <si>
+    <t>RIOT CONTROL STORMTROOPER STAR WARS EPISÓDIO VII ART SCALE 1/10 IRON STUDIOS</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - PERFECT CELL - DRAGONBALL Z</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - VISERION - GAME OF THRONES - SUPER SIZED POP!</t>
+  </si>
+  <si>
+    <t>KYLO REN STAR WARS EPISÓDIO VII - ART SCALE 1/10 IRON STUDIOS</t>
+  </si>
+  <si>
+    <t>LOL</t>
+  </si>
+  <si>
+    <t>https://na.merch.riotgames.com/en/</t>
+  </si>
+  <si>
+    <t>ASHE UNLOCKED STATUE</t>
+  </si>
+  <si>
+    <t>BRAUM UNLOCKED XL STATUE</t>
+  </si>
+  <si>
+    <t>ZED UNLOCKED STATUE</t>
+  </si>
+  <si>
+    <t>EKKO UNLOCKED STATUE</t>
+  </si>
+  <si>
+    <t>KATARINA UNLOCKED STATUE</t>
+  </si>
+  <si>
+    <t>VI UNLOCKED STATUE</t>
+  </si>
+  <si>
+    <t>TWISTED FATE STATUE</t>
+  </si>
+  <si>
+    <t>THRESH STATUE</t>
+  </si>
+  <si>
+    <t>CAITLYN STATUE</t>
+  </si>
+  <si>
+    <t>K/DA AHRI FIGURE</t>
+  </si>
+  <si>
+    <t>CHAMPIONSHIP ASHE FIGURE XL</t>
+  </si>
+  <si>
+    <t>XAYAH &amp; RAKAN DUO FIGURE SET</t>
+  </si>
+  <si>
+    <t>LUNAR GODDESS DIANA FIGURE</t>
+  </si>
+  <si>
+    <t>LUNAR REVEL TEAM MINIS</t>
+  </si>
+  <si>
+    <t>LUNAR REVEL TEAM MINI - PANDA TIBBERS</t>
+  </si>
+  <si>
+    <t>URF FIGURE (SERIES 3)</t>
+  </si>
+  <si>
+    <t>TEEMO FIGURE</t>
+  </si>
+  <si>
+    <t>ARCADE TEAM MINIS</t>
+  </si>
+  <si>
+    <t>ODYSSEY JINX FIGURE</t>
+  </si>
+  <si>
+    <t>TARIC FIGURE</t>
+  </si>
+  <si>
+    <t>JHIN FIGURE</t>
+  </si>
+  <si>
+    <t>NENDOROID AHRI (GLOBAL RELEASE)</t>
+  </si>
+  <si>
+    <t>ZIGGS FIGURE</t>
+  </si>
+  <si>
+    <t>FIRECRACKER JINX FIGURE</t>
+  </si>
+  <si>
+    <t>FIGMA YASUO</t>
+  </si>
+  <si>
+    <t>ARCADE HECARIM FIGURE</t>
+  </si>
+  <si>
+    <t>KINDRED FIGURE</t>
+  </si>
+  <si>
+    <t>THRESH FIGURE</t>
+  </si>
+  <si>
+    <t>VAYNE FIGURE</t>
+  </si>
+  <si>
+    <t>BLITZCRANK FIGURE</t>
+  </si>
+  <si>
+    <t>BRAUM FIGURE</t>
+  </si>
+  <si>
+    <t>PROJECT: TEAM MINIS</t>
+  </si>
+  <si>
+    <t>STAR GUARDIAN TEAM MINIS</t>
+  </si>
+  <si>
+    <t>PROJECT: YI FIGURE</t>
+  </si>
+  <si>
+    <t>DRAGON TRAINER TRISTANA FIGURE</t>
+  </si>
+  <si>
+    <t>BARD FIGURE</t>
+  </si>
+  <si>
+    <t>DRAVEN FIGURE</t>
+  </si>
+  <si>
+    <t>CHO'GATH FIGURE</t>
+  </si>
+  <si>
+    <t>JAX FIGURE</t>
+  </si>
+  <si>
+    <t>NAMI FIGURE</t>
+  </si>
+  <si>
+    <t>LEONA FIGURE</t>
+  </si>
+  <si>
+    <t>KOG'MAW FIGURE</t>
+  </si>
+  <si>
+    <t>NAUTILUS FIGURE</t>
+  </si>
+  <si>
+    <t>MEOWKAI FIGURE</t>
+  </si>
+  <si>
+    <t>PROJECT: FIORA ACTION FIGURE</t>
+  </si>
+  <si>
+    <t>LULU FIGURE</t>
+  </si>
+  <si>
+    <t>BARON NASHOR FIGURE</t>
+  </si>
+  <si>
+    <t>WARRING KINGDOMS AZIR FIGURE</t>
+  </si>
+  <si>
+    <t>FINAL BOSS VEIGAR FIGURE</t>
+  </si>
+  <si>
+    <t>COLECIONÁVEL STRANGER DART - COLLECTION EDITION - 09CM</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - VOLDEMORT - HARRY POTTER</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - RAIDEN - MORTAL KOMBAT X</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - LUCAS - STRANGER THINGS</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - PICCOLO - DRAGON BALL Z</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - DOBBY - HARRY POTTER</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - REINHARDT - OVERWATCH - SUPER SIZED POP!</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - D.VA WITH MEKA - OVERWATCH - SUPER SIZED POP!</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - CHEWBACCA - STAR WARS</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - WIDOWMAKER - OVERWATCH</t>
+  </si>
+  <si>
+    <t>FUNKO POP! VINYL - SNOWBALL - RICK E MORTY</t>
+  </si>
+  <si>
+    <t>fantoy</t>
+  </si>
+  <si>
+    <t>METALGARURUMON - DIGIMON ADVENTURE - DIGIVOLVING SPIRITS 02 - BANDAI</t>
+  </si>
+  <si>
+    <t>WARGREYMON - DIGIMON ADVENTURE - DIGIVOLVING SPIRITS 01 - BANDAI</t>
+  </si>
+  <si>
+    <t>DIABLOMON - DIGIMON ADVENTURE - DIGIVOLVING SPIRITS 03 - BANDAI</t>
+  </si>
+  <si>
+    <t>ANGEWOMON - DIGIMON ADVENTURE - DIGIVOLVING SPIRITS 04 - BANDAI</t>
+  </si>
+  <si>
+    <t>ALPHAMON - DIGIMON X-EVOLUTION - DIGIVOLVING SPIRITS 05 - BANDAI</t>
+  </si>
+  <si>
+    <t>EREN YEAGER STATUE BRAVE-ACT - ATTACK ON TITAN</t>
+  </si>
+  <si>
+    <t>MESTRE KAME - DRAGON BALL - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>GOKU (A SAIYAN RAISED ON EARTH) - DRAGON BALL Z - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>GOKU BLACK - DRAGON BALL SUPER - FES!! FIGURE - BANPRESTO</t>
+  </si>
+  <si>
+    <t>FRIEZA (RESURRECTION) - DRAGON BALL SUPER - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>SUPER SAIYAN VEGETA (FINAL FLASH) - DRAGON BALL Z - BANPRESTO</t>
+  </si>
+  <si>
+    <t>TRUNKS - DRAGON BALL SUPER - WORLD FIGURE COLOSSEUM - BANPRESTO</t>
+  </si>
+  <si>
+    <t>EVA UNIT 00 (TV VER.) - EVANGELION - NXEDGE STYLE - BANDAI</t>
+  </si>
+  <si>
+    <t>EVA UNIT-01 (TV VER.) - EVANGELION - NXEDGE STYLE - BANDAI</t>
+  </si>
+  <si>
+    <t>EVA-01 (TEST TYPE) - NEON GENESIS EVANGELION - METAL BUILD - BANDAI</t>
+  </si>
+  <si>
+    <t>EDWARD ELRIC ARTFX J - FULLMETAL ALCHEMIST - KOTOBUKIYA</t>
+  </si>
+  <si>
+    <t>RG UNICORN 1/144 - GUNDAM - MODEL KIT - BANDAI</t>
+  </si>
+  <si>
+    <t>RG ZGMF-X20A STRIKE FREEDOM 1/144 - GUNDAM - MODEL KIT - BANDAI</t>
+  </si>
+  <si>
+    <t>HGUC RX-O FULL ARMOR UNICORN GUNDAM (DESTROY MODE) 1/144 - GUNDAM - MODEL KIT - BANDAI</t>
+  </si>
+  <si>
+    <t>KAMEN RIDER OLD V2 AND CYCLONE REMODELING - KAMEN RIDER - S.H. FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>KAMEN RIDER SKULL - KAMEN RIDER - SHINKOCCHOU SEIHOU - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>MASKED RIDER NEO 2 - KAMEN RIDER - SHINKOCCHOU SEIHOU - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>KAMEN RIDER KIVA-LA - BANDAI</t>
+  </si>
+  <si>
+    <t>SASUKE FIGURE - BORUTO: NARUTO NEXT GENERATIONS - BANPRESTO</t>
+  </si>
+  <si>
+    <t>BORUTO UZUMAKI - BORUTO: NARUTO NEXT GENERATIONS - SHINOBI RELATIONS NEO - BANPRESTO</t>
+  </si>
+  <si>
+    <t>NAMIKAZE MINATO - NARUTO SHIPPUDEN - XTRA - TSUME</t>
+  </si>
+  <si>
+    <t>PACK NARUTO SHIPPUDEN STANDING CHARACTER - TSUME</t>
+  </si>
+  <si>
+    <t>UZUMAKI NARUTO - NARUTO SHIPPUDEN - STANDING CHARACTER - TSUME</t>
+  </si>
+  <si>
+    <t>OROCHIMARU - NARUTO SHIPPUDEN - DXTRA - TSUME</t>
+  </si>
+  <si>
+    <t>NARUTO SENNIN MODE - NARUTO SHIPPUDEN - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>UCHIHA MADARA - NARUTO SHIPPUDEN - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>SHANKS (SOVEREIGN HAKI) - ONE PIECE - FIGUARTSZERO - BANDAI</t>
+  </si>
+  <si>
+    <t>VINSMOKE REIJU (CODE:B) - ONE PIECE - FLAG DIAMOND SHIP - BANPRESTO</t>
+  </si>
+  <si>
+    <t>NAMI - ONE PIECE - COLOR CHANGE - BANPRESTO</t>
+  </si>
+  <si>
+    <t>SABO (FIRE FIST) - ONE PIECE - FIGUARTSZERO - BANDAI</t>
+  </si>
+  <si>
+    <t>MONKEY D.LUFFY - ONE PIECE - WORLD FIGURE COLOSSEUM - BANPRESTO</t>
+  </si>
+  <si>
+    <t>TONY TONY CHOPPER (20TH ANNIVERSARY) - ONE PIECE - FIGUARTSZERO - BANDAI</t>
+  </si>
+  <si>
+    <t>PISCES APHRODITE (BLOOMING ROSES IN THE PLACE OF THE TWIN FISH) - D.D. PANORAMATION - BANDAI</t>
+  </si>
+  <si>
+    <t>ATHENA - D.D. PANORAMATION - BANDAI</t>
+  </si>
+  <si>
+    <t>PEGASUS SEIYA (HEAVEN CHAPTER VER.) - SAINT SEIYA - SAINT CLOTH MYTH - BANDAI</t>
+  </si>
+  <si>
+    <t>PHOENIX IKKI (REVIVAL VER.) - SAINT SEIYA - SAINT CLOTH MYTH - BANDAI</t>
+  </si>
+  <si>
+    <t>SUPER SAILOR VENUS - SAILOR MOON - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>SUPER SAILOR MERCURY - SAILOR MOON - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>SUPER SAILOR MARS - SAILOR MOON - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>SAILOR MOON - SAILOR MOON CRYSTAL - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>PRINCESS SERENITY - SAILOR MOON - FIGUARTS ZERO CHOUETE - BANDAI</t>
+  </si>
+  <si>
+    <t>SAILOR MARS [REI HINO] - FIGUARTSZERO - BANDAI</t>
+  </si>
+  <si>
+    <t>SAILOR JUPITER [MAKOTO KINO] - FIGUARTSZERO - BANDAI</t>
+  </si>
+  <si>
+    <t>SAILOR MERCURY [AMI MIZUNO] FIGUARTSZERO - SAILOR MOON - BANDAI</t>
+  </si>
+  <si>
+    <t>SAILOR VENUS [MINAKO AINO] - SAILOR MOON - BANDAI</t>
+  </si>
+  <si>
+    <t>SUPER SAILOR JUPITER - SAILOR MOON - S.H.FIGUARTS - BANDAI</t>
+  </si>
+  <si>
+    <t>KIRITO - SWORD ART ONLINE - EXQ - BANPRESTO</t>
+  </si>
+  <si>
+    <t>ASUNA - SWORD ART ONLINE: ORDINAL SCALE - BANPRESTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1059,6 +2133,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1084,9 +2165,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1369,21 +2452,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="72.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="50.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="45.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1417,19 +2499,19 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F3" t="s">
@@ -1446,16 +2528,16 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="E4" t="s">
@@ -1478,13 +2560,13 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E5" t="s">
@@ -1507,13 +2589,13 @@
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>73</v>
       </c>
       <c r="E6" t="s">
@@ -1536,13 +2618,13 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="2" t="s">
         <v>74</v>
       </c>
       <c r="E7" t="s">
@@ -1565,13 +2647,13 @@
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="2" t="s">
         <v>75</v>
       </c>
       <c r="E8" t="s">
@@ -1594,13 +2676,13 @@
       <c r="A9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="2" t="s">
         <v>76</v>
       </c>
       <c r="E9" t="s">
@@ -1623,19 +2705,19 @@
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="2" t="s">
         <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>106</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>120</v>
       </c>
       <c r="G10" t="s">
@@ -1652,13 +2734,13 @@
       <c r="A11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="2" t="s">
         <v>78</v>
       </c>
       <c r="E11" t="s">
@@ -1678,13 +2760,13 @@
       <c r="A12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="2" t="s">
         <v>79</v>
       </c>
       <c r="E12" t="s">
@@ -1704,7 +2786,7 @@
       <c r="A13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
@@ -1756,7 +2838,7 @@
       <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C15" t="s">
@@ -1782,7 +2864,7 @@
       <c r="A16" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
@@ -1799,10 +2881,10 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="A17" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C17" t="s">
@@ -1825,13 +2907,13 @@
       <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F18" t="s">
@@ -1845,7 +2927,7 @@
       <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C19" t="s">
@@ -1862,7 +2944,7 @@
       <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C20" t="s">
@@ -1876,7 +2958,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C21" t="s">
@@ -1971,12 +3053,12 @@
       <c r="C28" t="s">
         <v>69</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="2" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D29" t="s">
+      <c r="D29" s="2" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2028,7 +3110,7 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="2" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2038,12 +3120,12 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="A39" s="2" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="A40" s="2" t="s">
         <v>184</v>
       </c>
     </row>
@@ -2058,32 +3140,32 @@
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="A44" s="2" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="A45" s="2" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="A46" s="2" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="A47" s="2" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="A48" s="2" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="A49" s="2" t="s">
         <v>192</v>
       </c>
     </row>
@@ -2138,62 +3220,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" tooltip="Box Harry Potter - Série Completa" display="https://www.saraiva.com.br/box-harry-potter-serie-completa-9032983.html" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A4" r:id="rId2" tooltip="Harry Potter e A Pedra Filosofal - Capa Dura" display="https://www.saraiva.com.br/harry-potter-e-a-pedra-filosofal-capa-dura-9738750.html" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A17" r:id="rId3" tooltip="Harry Potter e A Pedra Filosofal - Capa Dura" display="https://www.saraiva.com.br/harry-potter-e-a-pedra-filosofal-capa-dura-9738750.html" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C5" r:id="rId4" tooltip="O Tempo Desconjuntado" display="https://www.saraiva.com.br/o-tempo-desconjuntado-10147259.html" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C6" r:id="rId5" tooltip="Espere Agora Pelo Ano Passado" display="https://www.saraiva.com.br/espere-agora-pelo-ano-passado-10287840.html" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C7" r:id="rId6" tooltip="O Sol Desvelado" display="https://www.saraiva.com.br/o-sol-desvelado-7514116.html" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C8" r:id="rId7" tooltip="As Cavernas de Aço" display="https://www.saraiva.com.br/as-cavernas-de-aco-5267908.html" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C9" r:id="rId8" tooltip="Os Robôs da Alvorada" display="https://www.saraiva.com.br/os-robos-da-alvorada-8973928.html" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="C10" r:id="rId9" tooltip="Aniquilação - Trilogia Comando Sul - Vol. 1" display="https://www.saraiva.com.br/aniquilacao-trilogia-comando-sul-vol-1-7791042.html" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B3" r:id="rId10" tooltip="It - A Coisa" display="https://www.saraiva.com.br/it-a-coisa-7697879.html" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="B4" r:id="rId11" tooltip="A Hora do Lobisomem" display="https://www.saraiva.com.br/a-hora-do-lobisomem-9727600.html" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="B5" r:id="rId12" tooltip="Doutor Sono" display="https://www.saraiva.com.br/doutor-sono-8141048.html" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="B6" r:id="rId13" tooltip="Cujo" display="https://www.saraiva.com.br/cujo-9377508.html" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="B7" r:id="rId14" tooltip="Christine" display="https://www.saraiva.com.br/christine-5412696.html" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="B8" r:id="rId15" tooltip="Sob a Redoma" display="https://www.saraiva.com.br/sob-a-redoma-4238853.html" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="B9" r:id="rId16" tooltip="A Casa Negra" display="https://www.saraiva.com.br/a-casa-negra-5375483.html" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="B10" r:id="rId17" tooltip="Carrie" display="https://www.saraiva.com.br/carrie-4923287.html" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="B11" r:id="rId18" display="https://www.darksidebooks.com.br/dracula-de-bram-stoker-first-edition/" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="B12" r:id="rId19" display="https://www.darksidebooks.com.br/edgar-allan-poe-medo-classico-vol-2/" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="B13" r:id="rId20" display="https://www.darksidebooks.com.br/edgar-allan-poe-medo-classico-vol-2/" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="B15" r:id="rId21" display="https://www.darksidebooks.com.br/hp-lovecraft-medo-classico-vol-1-miskatonic-edition/" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="B16" r:id="rId22" display="https://www.darksidebooks.com.br/labirinto/" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="B17" r:id="rId23" display="https://www.darksidebooks.com.br/donnie-darko/" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="B19" r:id="rId24" display="https://www.darksidebooks.com.br/de-volta-para-o-futuro/" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="B18" r:id="rId25" display="https://www.darksidebooks.com.br/tubarao/" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="B20" r:id="rId26" display="https://www.darksidebooks.com.br/goonies-special-edition/" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="B21" r:id="rId27" display="https://www.darksidebooks.com.br/psicose/" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="C18" r:id="rId28" tooltip="Star Wars - O Arquivo Rebelde" display="https://www.saraiva.com.br/star-wars-o-arquivo-rebelde-10219057.html" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D3" r:id="rId29" tooltip="Iracema" display="https://www.saraiva.com.br/iracema-9341630.html" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D4" r:id="rId30" display="http://jornal.usp.br/cultura/memorias-postumas-de-bras-cubas-observa-a-condicao-humana/" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D5" r:id="rId31" display="http://jornal.usp.br/cultura/livro-indicado-pela-fuvest-o-cortico-retrata-o-brasil-de-hoje/" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D6" r:id="rId32" display="http://jornal.usp.br/cultura/a-cidade-e-as-serras-questiona-os-valores-da-sociedade-urbana/" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D7" r:id="rId33" display="http://jornal.usp.br/cultura/vidas-secas-denuncia-o-descaso-social-e-a-exploracao-humana/" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D8" r:id="rId34" display="http://jornal.usp.br/cultura/minha-vida-de-menina-e-o-novo-livro-exigido-pela-fuvest/" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D9" r:id="rId35" display="http://jornal.usp.br/cultura/livro-indicado-pela-fuvest-claro-enigma-dialoga-com-dante-e-camoes/" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D10" r:id="rId36" display="http://jornal.usp.br/cultura/sagarana-livro-exigido-pela-fuvest-aponta-os-caminhos-de-rosa/" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D11" r:id="rId37" display="http://jornal.usp.br/cultura/em-mayombe-selva-e-lugar-para-o-surgimento-do-homem-novo-e-da-angola-independente/" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D12" r:id="rId38" tooltip="Capitães da Areia" display="https://www.saraiva.com.br/capitaes-da-areia-2230223.html" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D18" r:id="rId39" tooltip="A Metamorfose" display="https://www.saraiva.com.br/a-metamorfose-8689573.html" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D28" r:id="rId40" tooltip="Frankenstein - Edição Comentada - Col...." display="https://www.saraiva.com.br/frankenstein-edicao-comentada-col-classicos-zahar-9431012.html" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D29" r:id="rId41" tooltip="O Diário de Anne Frank - Edição Definitiva" display="https://www.saraiva.com.br/o-diario-de-anne-frank-edicao-definitiva-347296.html" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="E3" r:id="rId42" tooltip="Box - Diário De Um Banana - 10 Volumes" display="https://www.saraiva.com.br/box-diario-de-um-banana-10-volumes-9473021.html" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="F10" r:id="rId43" tooltip="Xanathar's Guide to Everything" display="https://www.amazon.com.br/Xanathars-Guide-Everything-Wizards-Team/dp/0786966114/ref=sr_1_1?s=books&amp;ie=UTF8&amp;qid=1542202575&amp;sr=1-1&amp;keywords=xanathar%27s+guide+to+everything" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="A37" r:id="rId44" tooltip="Como Partir o Coração de Um Dragão" display="https://www.saraiva.com.br/como-partir-o-coracao-de-um-dragao-4086449.html" xr:uid="{38AE3895-492F-485C-B87F-40CB10123571}"/>
-    <hyperlink ref="A39" r:id="rId45" tooltip="Como Pegar A Joia do Dragão - Série Como..." display="https://www.saraiva.com.br/como-pegar-a-joia-do-dragao-serie-como-treinar-seu-dragao-5499902.html" xr:uid="{955C6AB0-AB12-4805-9281-116CA41A90A1}"/>
-    <hyperlink ref="A40" r:id="rId46" tooltip="Como Trair o Herói de Um Dragão - Vol. 11" display="https://www.saraiva.com.br/como-trair-o-heroi-de-um-dragao-vol-11-7420664.html" xr:uid="{6C9D3D8E-E900-425B-B5A0-AE6941B6D037}"/>
-    <hyperlink ref="A44" r:id="rId47" tooltip="O Senhor dos Anéis - Coleção em 3 Volumes" display="https://www.saraiva.com.br/o-senhor-dos-aneis-colecao-em-3-volumes-101872.html" xr:uid="{9E868E34-9634-42B0-8784-C27A13BD4AD4}"/>
-    <hyperlink ref="A45" r:id="rId48" tooltip="O Senhor dos Anéis III - O Retorno do Rei" display="https://www.saraiva.com.br/o-senhor-dos-aneis-iii-o-retorno-do-rei-452780.html" xr:uid="{D3A2D4D2-52CF-4B15-B25A-E79A64F35E89}"/>
-    <hyperlink ref="A46" r:id="rId49" display="https://www.saraiva.com.br/o-hobbit-7-ed-2013-5246366.html?mi=VITRINECHAORDIC_ultimatebuy_product_5246366" xr:uid="{3F76C0AF-D08E-4D6C-8A1D-D116BC1B91E0}"/>
-    <hyperlink ref="A47" r:id="rId50" tooltip="O Senhor dos Anéis II - As Duas Torres" display="https://www.saraiva.com.br/o-senhor-dos-aneis-ii-as-duas-torres-452779.html" xr:uid="{795A4FB7-DCF6-4470-B09D-90BA624BBD96}"/>
-    <hyperlink ref="A48" r:id="rId51" tooltip="O Senhor dos Anéis I - A Sociedade do Anel" display="https://www.saraiva.com.br/o-senhor-dos-aneis-i-a-sociedade-do-anel-452744.html" xr:uid="{F1A9D6AB-DE56-45BE-A93C-6344B1C19943}"/>
-    <hyperlink ref="A49" r:id="rId52" tooltip="O Silmarillion - 5ª Ed. 2011" display="https://www.saraiva.com.br/o-silmarillion-5-ed-2011-4532419.html" xr:uid="{2270673A-D206-47A5-8C06-513F3EBE0190}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId53"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2225,20 +3253,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="72.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2249,7 +3277,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>217</v>
       </c>
@@ -2260,7 +3288,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>214</v>
       </c>
@@ -2271,7 +3299,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>215</v>
       </c>
@@ -2281,8 +3309,12 @@
       <c r="C5" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <f>COUNTA(A1:C89)</f>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>216</v>
       </c>
@@ -2293,7 +3325,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>218</v>
       </c>
@@ -2304,7 +3336,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>219</v>
       </c>
@@ -2315,7 +3347,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>220</v>
       </c>
@@ -2326,7 +3358,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>221</v>
       </c>
@@ -2337,7 +3369,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>222</v>
       </c>
@@ -2345,7 +3377,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>223</v>
       </c>
@@ -2356,7 +3388,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>224</v>
       </c>
@@ -2367,7 +3399,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>225</v>
       </c>
@@ -2378,7 +3410,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>226</v>
       </c>
@@ -2389,7 +3421,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>227</v>
       </c>
@@ -2811,38 +3843,1603 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D30C0D86-0CA4-4B8B-97A2-DDA5F419C5EB}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Planilha1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="58.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="77.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="66.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="63" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1" t="s">
+        <v>521</v>
+      </c>
+      <c r="D1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>501</v>
+      </c>
+      <c r="B4" t="s">
+        <v>488</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" t="s">
+        <v>483</v>
+      </c>
+      <c r="E4" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>502</v>
+      </c>
+      <c r="B5" t="s">
+        <v>489</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="D5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E5" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" t="s">
+        <v>490</v>
+      </c>
+      <c r="C6" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" t="s">
+        <v>491</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="D7" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>505</v>
+      </c>
+      <c r="B8" t="s">
+        <v>492</v>
+      </c>
+      <c r="D8" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>506</v>
+      </c>
+      <c r="B9" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B10" t="s">
+        <v>494</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B11" t="s">
+        <v>495</v>
+      </c>
+      <c r="D11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>509</v>
+      </c>
+      <c r="B12" t="s">
+        <v>496</v>
+      </c>
+      <c r="D12" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>510</v>
+      </c>
+      <c r="B13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D13" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B14" t="s">
+        <v>498</v>
+      </c>
+      <c r="D14" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>512</v>
+      </c>
+      <c r="B15" t="s">
+        <v>499</v>
+      </c>
+      <c r="D15" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="D17" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>516</v>
+      </c>
+      <c r="D18" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>517</v>
+      </c>
+      <c r="D19" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>518</v>
+      </c>
+      <c r="D20" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>519</v>
+      </c>
+      <c r="D21" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>520</v>
+      </c>
+      <c r="D22" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="D24" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>551</v>
+      </c>
+      <c r="D25" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>552</v>
+      </c>
+      <c r="D26" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>553</v>
+      </c>
+      <c r="D27" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>554</v>
+      </c>
+      <c r="D28" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>555</v>
+      </c>
+      <c r="D29" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>556</v>
+      </c>
+      <c r="D30" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>557</v>
+      </c>
+      <c r="D31" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>558</v>
+      </c>
+      <c r="D32" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>559</v>
+      </c>
+      <c r="D33" t="s">
+        <v>549</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2F21BF9-0BA1-41F6-8BD7-6F0F1046D2C6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B126"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="46.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="85" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="B6" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B9" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B10" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B11" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>350</v>
+      </c>
+      <c r="B13" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>353</v>
+      </c>
+      <c r="B17" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>354</v>
+      </c>
+      <c r="B18" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>461</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D59DDF6-C58F-4205-A134-15E206118CA7}">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="79.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="114.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>COUNTA(A1:D87)</f>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>565</v>
+      </c>
+      <c r="B4" t="s">
+        <v>571</v>
+      </c>
+      <c r="C4" t="s">
+        <v>564</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>566</v>
+      </c>
+      <c r="B5" t="s">
+        <v>573</v>
+      </c>
+      <c r="C5" t="s">
+        <v>567</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>568</v>
+      </c>
+      <c r="C6" t="s">
+        <v>570</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>569</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C7" t="s">
+        <v>572</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" t="s">
+        <v>642</v>
+      </c>
+      <c r="C8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>577</v>
+      </c>
+      <c r="B9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" t="s">
+        <v>575</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>631</v>
+      </c>
+      <c r="B10" t="s">
+        <v>644</v>
+      </c>
+      <c r="C10" t="s">
+        <v>578</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>632</v>
+      </c>
+      <c r="B11" t="s">
+        <v>645</v>
+      </c>
+      <c r="C11" t="s">
+        <v>630</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>633</v>
+      </c>
+      <c r="B12" t="s">
+        <v>646</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>634</v>
+      </c>
+      <c r="B13" t="s">
+        <v>647</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>635</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>636</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>649</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>637</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>638</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>651</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>639</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>640</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>653</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>655</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>657</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>664</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>668</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B37" s="2" t="s">
+        <v>671</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B38" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B39" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B40" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B41" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B42" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B43" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B44" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B45" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B46" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B47" s="2" t="s">
+        <v>681</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B48" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="2" t="s">
+        <v>685</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B52" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B53" s="2" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="2" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="2" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B56" s="2" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B57" s="2" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B58" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B59" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B61" s="2" t="s">
+        <v>694</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Documentação/Produtos.xlsx
+++ b/Documentação/Produtos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3aetim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TCCScrolls\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{566F1CC7-F673-43A2-93A7-B5FEA856A411}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Livros" sheetId="1" r:id="rId1"/>
@@ -20,12 +21,12 @@
     <sheet name="Mangá" sheetId="6" r:id="rId6"/>
     <sheet name="Colecionáveis" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="968">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="959">
   <si>
     <t>Ação</t>
   </si>
@@ -375,9 +376,6 @@
     <t>A mumia</t>
   </si>
   <si>
-    <t>Harry Potter e o Prisioneiro De Azkaban - Ilustrado</t>
-  </si>
-  <si>
     <t>Detona Halp</t>
   </si>
   <si>
@@ -930,9 +928,6 @@
     <t>Nemo 12</t>
   </si>
   <si>
-    <t>Harry Potter e a Camara Secreta</t>
-  </si>
-  <si>
     <t>Transformers 12345</t>
   </si>
   <si>
@@ -981,9 +976,6 @@
     <t>Hacking Para Leigos</t>
   </si>
   <si>
-    <t>Harry Potter e o Cálice de Fogo</t>
-  </si>
-  <si>
     <t>SEXTA-FEIRA 13 [ARQUIVOS DE CRYSTAL LAKE] – BLOODY EDITION</t>
   </si>
   <si>
@@ -1005,9 +997,6 @@
     <t>Java Para Leigos</t>
   </si>
   <si>
-    <t>Harry Potter e a Ordem da Fênix</t>
-  </si>
-  <si>
     <t>H.P. LOVECRAFT: MEDO CLÁSSICO VOL. 1 – COSMIC EDITION</t>
   </si>
   <si>
@@ -1029,9 +1018,6 @@
     <t>SQL Para Leigos</t>
   </si>
   <si>
-    <t>Harry Potter e o Enígma do Príncipe</t>
-  </si>
-  <si>
     <t>H.P. LOVECRAFT: MEDO CLÁSSICO VOL. 1 – MISKATONIC EDITION</t>
   </si>
   <si>
@@ -1053,9 +1039,6 @@
     <t>Começando A Programar Em C Para Leigos</t>
   </si>
   <si>
-    <t>Harry Potter e as Relíquias da Morte</t>
-  </si>
-  <si>
     <t>LABIRINTO</t>
   </si>
   <si>
@@ -1068,9 +1051,6 @@
     <t>C++ Para Leigos - Tradução da 7ª Edição</t>
   </si>
   <si>
-    <t>Harry Potter e A Pedra Filosofal</t>
-  </si>
-  <si>
     <t>DONNIE DARKO</t>
   </si>
   <si>
@@ -1089,9 +1069,6 @@
     <t>História do Mundo para Leigos</t>
   </si>
   <si>
-    <t>Harry Potter e A Criança Amaldiçoada - Parte Um e Dois</t>
-  </si>
-  <si>
     <t>TUBARÃO | CLASSIC EDITION</t>
   </si>
   <si>
@@ -1107,9 +1084,6 @@
     <t>Programando Excel Vba Para Leigos</t>
   </si>
   <si>
-    <t>Harry Potter e A Pedra Filosofal – Edição Ilustrada</t>
-  </si>
-  <si>
     <t>DE VOLTA PARA O FUTURO</t>
   </si>
   <si>
@@ -1122,9 +1096,6 @@
     <t>Terminologia Médica Para Leigos</t>
   </si>
   <si>
-    <t>Harry Potter e A Câmara Secreta - Edição Ilustrada</t>
-  </si>
-  <si>
     <t>OS GOONIES | SPECIAL EDITION</t>
   </si>
   <si>
@@ -2929,12 +2900,15 @@
   </si>
   <si>
     <t>Dragon Ball FighterZ</t>
+  </si>
+  <si>
+    <t>Colocar Quadrinhos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -3273,10 +3247,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I1000"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -3288,10 +3264,11 @@
     <col min="6" max="7" width="53.5703125" customWidth="1"/>
     <col min="8" max="8" width="74.7109375" customWidth="1"/>
     <col min="9" max="9" width="45.85546875" customWidth="1"/>
-    <col min="10" max="26" width="8.7109375" customWidth="1"/>
+    <col min="10" max="10" width="44.140625" customWidth="1"/>
+    <col min="11" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -3319,8 +3296,11 @@
       <c r="I1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="2" t="s">
         <v>28</v>
       </c>
@@ -3349,7 +3329,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
         <v>72</v>
       </c>
@@ -3378,670 +3358,641 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>116</v>
-      </c>
+    <row r="5" spans="1:10">
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
         <v>128</v>
       </c>
-      <c r="G5" t="s">
-        <v>129</v>
-      </c>
       <c r="H5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+      <c r="B6" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" t="s">
         <v>142</v>
       </c>
-      <c r="E6" t="s">
-        <v>143</v>
-      </c>
       <c r="F6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I6" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I7" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="I8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I9" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I10" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="E11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>301</v>
-      </c>
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C12" t="s">
         <v>305</v>
       </c>
-      <c r="C12" t="s">
-        <v>307</v>
-      </c>
       <c r="D12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E12" t="s">
         <v>310</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>312</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>314</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="I12" t="s">
+      <c r="C13" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
+      <c r="D13" t="s">
         <v>318</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="E13" t="s">
         <v>319</v>
       </c>
-      <c r="C13" t="s">
+      <c r="F13" t="s">
         <v>320</v>
       </c>
-      <c r="D13" t="s">
+      <c r="H13" t="s">
         <v>321</v>
       </c>
-      <c r="E13" t="s">
+      <c r="I13" t="s">
         <v>322</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" t="s">
         <v>323</v>
       </c>
-      <c r="H13" t="s">
+      <c r="C14" t="s">
         <v>324</v>
       </c>
-      <c r="I13" t="s">
+      <c r="D14" t="s">
+        <v>332</v>
+      </c>
+      <c r="E14" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" t="s">
+        <v>327</v>
+      </c>
+      <c r="H14" t="s">
+        <v>328</v>
+      </c>
+      <c r="I14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E15" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" t="s">
+        <v>334</v>
+      </c>
+      <c r="H15" t="s">
+        <v>335</v>
+      </c>
+      <c r="I15" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D16" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" t="s">
-        <v>328</v>
-      </c>
-      <c r="D14" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" t="s">
-        <v>330</v>
-      </c>
-      <c r="F14" t="s">
-        <v>331</v>
-      </c>
-      <c r="H14" t="s">
-        <v>332</v>
-      </c>
-      <c r="I14" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>334</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" t="s">
-        <v>336</v>
-      </c>
-      <c r="D15" t="s">
-        <v>337</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="F16" t="s">
         <v>338</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H16" t="s">
         <v>339</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I16" t="s">
         <v>340</v>
       </c>
-      <c r="I15" t="s">
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
+      <c r="C17" t="s">
         <v>342</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="D17" t="s">
         <v>343</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>344</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>345</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="2" t="s">
+    <row r="18" spans="1:9">
+      <c r="B18" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D18" t="s">
         <v>349</v>
       </c>
-      <c r="D17" t="s">
+      <c r="F18" t="s">
         <v>350</v>
       </c>
-      <c r="F17" t="s">
+      <c r="I18" t="s">
         <v>351</v>
       </c>
-      <c r="H17" t="s">
+    </row>
+    <row r="19" spans="1:9">
+      <c r="B19" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="I17" t="s">
+      <c r="C19" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
+      <c r="D19" t="s">
         <v>354</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="I19" t="s">
         <v>355</v>
       </c>
-      <c r="C18" s="2" t="s">
+    </row>
+    <row r="20" spans="1:9">
+      <c r="B20" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D18" t="s">
+      <c r="C20" t="s">
         <v>357</v>
       </c>
-      <c r="F18" t="s">
+      <c r="D20" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I20" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="C19" t="s">
-        <v>362</v>
-      </c>
-      <c r="D19" t="s">
-        <v>363</v>
-      </c>
-      <c r="I19" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>365</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="C20" t="s">
-        <v>367</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="I20" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="C21" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="D21" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="I21" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="C22" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D22" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="I22" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
       <c r="C23" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="D23" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="I23" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="C24" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="I24" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="C25" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="C26" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="D26" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C27" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D27" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C28" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D28" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="D29" s="2" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="D31" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="D32" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="D33" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="15.75" customHeight="1">
       <c r="A37" s="2" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" customHeight="1"/>
     <row r="44" spans="1:4" ht="15.75" customHeight="1">
       <c r="A44" s="2" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" customHeight="1">
       <c r="A45" s="2" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" customHeight="1">
       <c r="A46" s="2" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="15.75" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" customHeight="1"/>
@@ -4985,15 +4936,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -5199,401 +5152,401 @@
         <v>115</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="G11" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>156</v>
-      </c>
       <c r="F12" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E13" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="D14" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>185</v>
-      </c>
       <c r="G14" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>197</v>
-      </c>
       <c r="G15" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>204</v>
-      </c>
       <c r="D16" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="D17" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>216</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C18" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="G18" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>234</v>
-      </c>
       <c r="G19" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C20" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>241</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>242</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>106</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D21" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>249</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B22" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>255</v>
-      </c>
       <c r="D22" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="G22" s="1" t="s">
         <v>257</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="C23" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="C24" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C25" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>277</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="C26" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="G26" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="1" t="s">
         <v>289</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="C28" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>299</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C30" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>308</v>
-      </c>
       <c r="C31" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C32" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1">
       <c r="C33" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" customHeight="1"/>
@@ -6592,11 +6545,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -6636,13 +6589,13 @@
         <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>918</v>
+        <v>908</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>947</v>
+        <v>937</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -6653,13 +6606,13 @@
         <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>948</v>
+        <v>938</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6673,10 +6626,10 @@
         <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>949</v>
+        <v>939</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -6687,13 +6640,13 @@
         <v>56</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>919</v>
+        <v>909</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>950</v>
+        <v>940</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -6704,13 +6657,13 @@
         <v>67</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>920</v>
+        <v>910</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>951</v>
+        <v>941</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -6721,13 +6674,13 @@
         <v>75</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="E8" t="s">
-        <v>952</v>
+        <v>942</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -6738,13 +6691,13 @@
         <v>82</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>922</v>
+        <v>912</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="E9" t="s">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6755,13 +6708,13 @@
         <v>89</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>923</v>
+        <v>913</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="E10" t="s">
-        <v>954</v>
+        <v>944</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6772,13 +6725,13 @@
         <v>97</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>924</v>
+        <v>914</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>955</v>
+        <v>945</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6789,13 +6742,13 @@
         <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>925</v>
+        <v>915</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>956</v>
+        <v>946</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6806,13 +6759,13 @@
         <v>109</v>
       </c>
       <c r="C13" t="s">
-        <v>926</v>
+        <v>916</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>957</v>
+        <v>947</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6823,98 +6776,98 @@
         <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>927</v>
+        <v>917</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>958</v>
+        <v>948</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>928</v>
+        <v>918</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>959</v>
+        <v>949</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>929</v>
+        <v>919</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>960</v>
+        <v>950</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>930</v>
+        <v>920</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>961</v>
+        <v>951</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>931</v>
+        <v>921</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>962</v>
+        <v>952</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>963</v>
+        <v>953</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6922,101 +6875,101 @@
         <v>101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>933</v>
+        <v>923</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>964</v>
+        <v>954</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>934</v>
+        <v>924</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>941</v>
+        <v>931</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>965</v>
+        <v>955</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>935</v>
+        <v>925</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>942</v>
+        <v>932</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>966</v>
+        <v>956</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>936</v>
+        <v>926</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>967</v>
+        <v>957</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>937</v>
+        <v>927</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>944</v>
+        <v>934</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="C25" s="1" t="s">
-        <v>938</v>
+        <v>928</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>945</v>
+        <v>935</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="C26" s="1" t="s">
-        <v>940</v>
+        <v>930</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>946</v>
+        <v>936</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="C27" s="1" t="s">
-        <v>939</v>
+        <v>929</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="C28" s="1" t="s">
-        <v>932</v>
+        <v>922</v>
       </c>
       <c r="F28">
         <v>119</v>
@@ -7024,7 +6977,7 @@
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="C29" s="1" t="s">
-        <v>943</v>
+        <v>933</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1"/>
@@ -8000,17 +7953,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://store.nintendo.com.br/pokemon-let-s-go-eevee"/>
-    <hyperlink ref="E12" r:id="rId2" display="https://store.nintendo.com.br/pokemon-let-s-go-pikachu"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://store.nintendo.com.br/fifa-19"/>
-    <hyperlink ref="E14" r:id="rId4" display="https://store.nintendo.com.br/kirby-star-allies"/>
-    <hyperlink ref="E15" r:id="rId5" display="https://store.nintendo.com.br/donkey-kong-country-tropical-freeze"/>
-    <hyperlink ref="E16" r:id="rId6" display="https://store.nintendo.com.br/hyrule-warriors-definitive-edition"/>
-    <hyperlink ref="E17" r:id="rId7" display="https://store.nintendo.com.br/bayonetta-2"/>
-    <hyperlink ref="E18" r:id="rId8" display="https://store.nintendo.com.br/xenoblade-chronicles-2"/>
-    <hyperlink ref="E19" r:id="rId9" display="https://store.nintendo.com.br/pokken-tournament"/>
-    <hyperlink ref="E20" r:id="rId10" display="https://store.nintendo.com.br/fire-emblem-warriors"/>
-    <hyperlink ref="E21" r:id="rId11" display="https://store.nintendo.com.br/arms"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://store.nintendo.com.br/pokemon-let-s-go-eevee" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="E12" r:id="rId2" display="https://store.nintendo.com.br/pokemon-let-s-go-pikachu" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://store.nintendo.com.br/fifa-19" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E14" r:id="rId4" display="https://store.nintendo.com.br/kirby-star-allies" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E15" r:id="rId5" display="https://store.nintendo.com.br/donkey-kong-country-tropical-freeze" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E16" r:id="rId6" display="https://store.nintendo.com.br/hyrule-warriors-definitive-edition" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E17" r:id="rId7" display="https://store.nintendo.com.br/bayonetta-2" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E18" r:id="rId8" display="https://store.nintendo.com.br/xenoblade-chronicles-2" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E19" r:id="rId9" display="https://store.nintendo.com.br/pokken-tournament" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E20" r:id="rId10" display="https://store.nintendo.com.br/fire-emblem-warriors" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E21" r:id="rId11" display="https://store.nintendo.com.br/arms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId12"/>
@@ -8018,7 +7971,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8033,46 +7986,46 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="B1" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
       <c r="C1" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s">
-        <v>451</v>
+        <v>441</v>
       </c>
       <c r="C4" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>450</v>
       </c>
       <c r="D5">
         <f>COUNTA(A1:C89)</f>
@@ -8081,527 +8034,527 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="B6" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="C6" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="C7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="B8" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="C8" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="B9" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="C9" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C10" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="B11" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="B12" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="C13" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="B14" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="C14" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="B15" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="C15" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="C16" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C17" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="B18" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="C18" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="B19" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C19" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="B20" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B21" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="B22" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="C22" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C23" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1">
       <c r="B24" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>447</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B26" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="B27" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="B28" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="B29" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="B30" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="B31" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" s="7" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" s="7" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15.75" customHeight="1"/>
@@ -9522,10 +9475,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9539,324 +9492,324 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" t="s">
+        <v>424</v>
+      </c>
+      <c r="D1" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" t="s">
         <v>429</v>
-      </c>
-      <c r="B1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C1" t="s">
-        <v>434</v>
-      </c>
-      <c r="D1" t="s">
-        <v>436</v>
-      </c>
-      <c r="E1" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s">
-        <v>444</v>
+        <v>434</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>445</v>
+        <v>435</v>
       </c>
       <c r="D4" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="E4" t="s">
-        <v>448</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
-        <v>452</v>
+        <v>442</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="D5" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>449</v>
       </c>
       <c r="B6" t="s">
-        <v>461</v>
+        <v>451</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>452</v>
       </c>
       <c r="D6" t="s">
-        <v>463</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>464</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D7" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D8" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B9" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>464</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="D11" t="s">
-        <v>478</v>
+        <v>468</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>479</v>
+        <v>469</v>
       </c>
       <c r="B12" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="D12" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="D13" t="s">
-        <v>484</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>485</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s">
-        <v>486</v>
+        <v>476</v>
       </c>
       <c r="D14" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="B15" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="D15" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="D16" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
     </row>
     <row r="17" spans="2:4">
       <c r="B17" s="6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="D17" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
     </row>
     <row r="18" spans="2:4">
       <c r="B18" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="D18" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="D19" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="D20" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="15.75" customHeight="1">
       <c r="B21" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="D21" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="15.75" customHeight="1">
       <c r="B22" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="D22" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.75" customHeight="1">
       <c r="D23" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="15.75" customHeight="1">
       <c r="B24" s="6" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="D24" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="15.75" customHeight="1">
       <c r="B25" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="D25" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="15.75" customHeight="1">
       <c r="B26" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D26" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="15.75" customHeight="1">
       <c r="B27" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D27" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="15.75" customHeight="1">
       <c r="B28" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="D28" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="15.75" customHeight="1">
       <c r="B29" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="D29" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="15.75" customHeight="1">
       <c r="B30" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="D30" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="15.75" customHeight="1">
       <c r="B31" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="D31" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="15.75" customHeight="1">
       <c r="B32" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="D32" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1">
       <c r="B33" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="D33" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1"/>
@@ -10833,7 +10786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -10847,678 +10800,678 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="B1" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="B3" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B5" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B6" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="B9" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="B10" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="B11" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="B12" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="B13" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="B14" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="B15" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="B16" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="B17" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="B18" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" customHeight="1">
       <c r="A21" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" customHeight="1">
       <c r="A22" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" customHeight="1">
       <c r="A23" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" customHeight="1">
       <c r="A24" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1">
       <c r="A25" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1">
       <c r="A26" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1">
       <c r="A27" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1">
       <c r="A28" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1">
       <c r="A29" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1">
       <c r="A30" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1">
       <c r="A31" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1">
       <c r="A32" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15.75" customHeight="1">
       <c r="A33" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15.75" customHeight="1">
       <c r="A34" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15.75" customHeight="1">
       <c r="A35" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15.75" customHeight="1">
       <c r="A36" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15.75" customHeight="1">
       <c r="A37" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15.75" customHeight="1">
       <c r="A38" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15.75" customHeight="1">
       <c r="A39" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15.75" customHeight="1">
       <c r="A40" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15.75" customHeight="1">
       <c r="A41" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15.75" customHeight="1">
       <c r="A42" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" customHeight="1">
       <c r="A43" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" customHeight="1">
       <c r="A44" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" customHeight="1">
       <c r="A45" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15.75" customHeight="1">
       <c r="A46" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15.75" customHeight="1">
       <c r="A47" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15.75" customHeight="1">
       <c r="A48" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15.75" customHeight="1">
       <c r="A49" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15.75" customHeight="1">
       <c r="A50" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15.75" customHeight="1">
       <c r="A51" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15.75" customHeight="1">
       <c r="A52" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15.75" customHeight="1">
       <c r="A53" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" customHeight="1">
       <c r="A54" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:1" ht="15.75" customHeight="1">
       <c r="A55" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
     </row>
     <row r="56" spans="1:1" ht="15.75" customHeight="1">
       <c r="A56" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="15.75" customHeight="1">
       <c r="A57" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="15.75" customHeight="1">
       <c r="A58" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
     </row>
     <row r="59" spans="1:1" ht="15.75" customHeight="1">
       <c r="A59" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="15.75" customHeight="1">
       <c r="A60" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="15.75" customHeight="1">
       <c r="A61" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="15.75" customHeight="1">
       <c r="A62" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="15.75" customHeight="1">
       <c r="A63" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
     </row>
     <row r="64" spans="1:1" ht="15.75" customHeight="1">
       <c r="A64" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="15.75" customHeight="1">
       <c r="A66" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="15.75" customHeight="1">
       <c r="A67" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="15.75" customHeight="1">
       <c r="A68" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
     </row>
     <row r="69" spans="1:1" ht="15.75" customHeight="1">
       <c r="A69" t="s">
-        <v>789</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="15.75" customHeight="1">
       <c r="A70" t="s">
-        <v>792</v>
+        <v>782</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="15.75" customHeight="1">
       <c r="A71" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="15.75" customHeight="1">
       <c r="A72" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="15.75" customHeight="1">
       <c r="A73" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
     </row>
     <row r="74" spans="1:1" ht="15.75" customHeight="1">
       <c r="A74" t="s">
-        <v>804</v>
+        <v>794</v>
       </c>
     </row>
     <row r="75" spans="1:1" ht="15.75" customHeight="1">
       <c r="A75" t="s">
-        <v>807</v>
+        <v>797</v>
       </c>
     </row>
     <row r="76" spans="1:1" ht="15.75" customHeight="1">
       <c r="A76" t="s">
-        <v>811</v>
+        <v>801</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="15.75" customHeight="1">
       <c r="A77" t="s">
-        <v>815</v>
+        <v>805</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="15.75" customHeight="1">
       <c r="A78" t="s">
-        <v>818</v>
+        <v>808</v>
       </c>
     </row>
     <row r="79" spans="1:1" ht="15.75" customHeight="1">
       <c r="A79" t="s">
-        <v>821</v>
+        <v>811</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="15.75" customHeight="1">
       <c r="A80" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
     </row>
     <row r="81" spans="1:1" ht="15.75" customHeight="1">
       <c r="A81" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="15.75" customHeight="1">
       <c r="A82" t="s">
-        <v>830</v>
+        <v>820</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="15.75" customHeight="1">
       <c r="A83" t="s">
-        <v>834</v>
+        <v>824</v>
       </c>
     </row>
     <row r="84" spans="1:1" ht="15.75" customHeight="1">
       <c r="A84" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
     </row>
     <row r="85" spans="1:1" ht="15.75" customHeight="1">
       <c r="A85" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
     </row>
     <row r="86" spans="1:1" ht="15.75" customHeight="1">
       <c r="A86" t="s">
-        <v>844</v>
+        <v>834</v>
       </c>
     </row>
     <row r="87" spans="1:1" ht="15.75" customHeight="1">
       <c r="A87" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="15.75" customHeight="1">
       <c r="A88" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
     </row>
     <row r="89" spans="1:1" ht="15.75" customHeight="1">
       <c r="A89" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
     </row>
     <row r="90" spans="1:1" ht="15.75" customHeight="1">
       <c r="A90" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
     </row>
     <row r="91" spans="1:1" ht="15.75" customHeight="1">
       <c r="A91" t="s">
-        <v>862</v>
+        <v>852</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="15.75" customHeight="1">
       <c r="A92" t="s">
-        <v>865</v>
+        <v>855</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="15.75" customHeight="1">
       <c r="A93" t="s">
-        <v>868</v>
+        <v>858</v>
       </c>
     </row>
     <row r="94" spans="1:1" ht="15.75" customHeight="1">
       <c r="A94" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
     </row>
     <row r="95" spans="1:1" ht="15.75" customHeight="1">
       <c r="A95" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
     </row>
     <row r="96" spans="1:1" ht="15.75" customHeight="1">
       <c r="A96" t="s">
-        <v>878</v>
+        <v>868</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="15.75" customHeight="1">
       <c r="A97" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="15.75" customHeight="1">
       <c r="A98" t="s">
-        <v>883</v>
+        <v>873</v>
       </c>
     </row>
     <row r="99" spans="1:1" ht="15.75" customHeight="1">
       <c r="A99" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
     </row>
     <row r="100" spans="1:1" ht="15.75" customHeight="1">
       <c r="A100" t="s">
-        <v>888</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:1" ht="15.75" customHeight="1">
       <c r="A101" t="s">
-        <v>890</v>
+        <v>880</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="15.75" customHeight="1">
       <c r="A102" t="s">
-        <v>892</v>
+        <v>882</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="15.75" customHeight="1">
       <c r="A103" t="s">
-        <v>893</v>
+        <v>883</v>
       </c>
     </row>
     <row r="104" spans="1:1" ht="15.75" customHeight="1">
       <c r="A104" t="s">
-        <v>894</v>
+        <v>884</v>
       </c>
     </row>
     <row r="105" spans="1:1" ht="15.75" customHeight="1">
       <c r="A105" t="s">
-        <v>895</v>
+        <v>885</v>
       </c>
     </row>
     <row r="106" spans="1:1" ht="15.75" customHeight="1">
       <c r="A106" t="s">
-        <v>896</v>
+        <v>886</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="15.75" customHeight="1">
       <c r="A107" t="s">
-        <v>897</v>
+        <v>887</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="15.75" customHeight="1">
       <c r="A108" t="s">
-        <v>898</v>
+        <v>888</v>
       </c>
     </row>
     <row r="109" spans="1:1" ht="15.75" customHeight="1">
       <c r="A109" t="s">
-        <v>899</v>
+        <v>889</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="15.75" customHeight="1">
       <c r="A110" t="s">
-        <v>900</v>
+        <v>890</v>
       </c>
     </row>
     <row r="111" spans="1:1" ht="15.75" customHeight="1">
       <c r="A111" t="s">
-        <v>901</v>
+        <v>891</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="15.75" customHeight="1">
       <c r="A112" t="s">
-        <v>902</v>
+        <v>892</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="15.75" customHeight="1">
       <c r="A113" t="s">
-        <v>903</v>
+        <v>893</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="15.75" customHeight="1">
       <c r="A114" t="s">
-        <v>904</v>
+        <v>894</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="15.75" customHeight="1">
       <c r="A115" t="s">
-        <v>905</v>
+        <v>895</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="15.75" customHeight="1">
       <c r="A116" t="s">
-        <v>906</v>
+        <v>896</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="15.75" customHeight="1">
       <c r="A117" t="s">
-        <v>907</v>
+        <v>897</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="15.75" customHeight="1">
       <c r="A118" t="s">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="119" spans="1:1" ht="15.75" customHeight="1">
       <c r="A119" t="s">
-        <v>909</v>
+        <v>899</v>
       </c>
     </row>
     <row r="120" spans="1:1" ht="15.75" customHeight="1">
       <c r="A120" t="s">
-        <v>910</v>
+        <v>900</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="15.75" customHeight="1">
       <c r="A121" t="s">
-        <v>911</v>
+        <v>901</v>
       </c>
     </row>
     <row r="122" spans="1:1" ht="15.75" customHeight="1">
       <c r="A122" t="s">
-        <v>912</v>
+        <v>902</v>
       </c>
     </row>
     <row r="123" spans="1:1" ht="15.75" customHeight="1">
       <c r="A123" t="s">
-        <v>913</v>
+        <v>903</v>
       </c>
     </row>
     <row r="124" spans="1:1" ht="15.75" customHeight="1">
       <c r="A124" t="s">
-        <v>914</v>
+        <v>904</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="15.75" customHeight="1">
       <c r="A125" t="s">
-        <v>915</v>
+        <v>905</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="15.75" customHeight="1">
       <c r="A126" t="s">
-        <v>916</v>
+        <v>906</v>
       </c>
     </row>
     <row r="127" spans="1:1" ht="15.75" customHeight="1"/>
@@ -12402,11 +12355,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12420,16 +12373,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="B1" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="C1" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="D1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -12440,522 +12393,522 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="6" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="B4" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="C4" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="B5" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="C5" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="C6" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="C7" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="B8" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="C8" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="B9" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="C9" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="B10" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="C10" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="C11" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="B12" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="B13" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="B20" s="2" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="B21" s="2" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="B22" s="2" t="s">
-        <v>790</v>
+        <v>780</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>791</v>
+        <v>781</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="B23" t="s">
-        <v>793</v>
+        <v>783</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>794</v>
+        <v>784</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="B25" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="B26" s="2" t="s">
-        <v>802</v>
+        <v>792</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>803</v>
+        <v>793</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
       <c r="B27" s="2" t="s">
-        <v>805</v>
+        <v>795</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>806</v>
+        <v>796</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
       <c r="B28" s="2" t="s">
-        <v>808</v>
+        <v>798</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>809</v>
+        <v>799</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="15.75" customHeight="1">
       <c r="B29" s="2" t="s">
-        <v>810</v>
+        <v>800</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>812</v>
+        <v>802</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="15.75" customHeight="1">
       <c r="B30" s="2" t="s">
-        <v>813</v>
+        <v>803</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>814</v>
+        <v>804</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="15.75" customHeight="1">
       <c r="B31" s="2" t="s">
-        <v>816</v>
+        <v>806</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>817</v>
+        <v>807</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="15.75" customHeight="1">
       <c r="B32" s="2" t="s">
-        <v>819</v>
+        <v>809</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>820</v>
+        <v>810</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="15.75" customHeight="1">
       <c r="B34" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="15.75" customHeight="1">
       <c r="B35" s="2" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>829</v>
+        <v>819</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="15.75" customHeight="1">
       <c r="B36" s="2" t="s">
-        <v>831</v>
+        <v>821</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>832</v>
+        <v>822</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="15.75" customHeight="1">
       <c r="B37" s="2" t="s">
-        <v>833</v>
+        <v>823</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="15.75" customHeight="1">
       <c r="B38" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="15.75" customHeight="1">
       <c r="B39" s="2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="15.75" customHeight="1">
       <c r="B40" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>843</v>
+        <v>833</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.75" customHeight="1">
       <c r="B41" s="2" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="15.75" customHeight="1">
       <c r="B42" s="2" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="15.75" customHeight="1">
       <c r="B43" s="2" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="15.75" customHeight="1">
       <c r="B44" s="2" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="15.75" customHeight="1">
       <c r="B45" s="2" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="15.75" customHeight="1">
       <c r="B46" s="2" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>860</v>
+        <v>850</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="15.75" customHeight="1">
       <c r="B47" s="2" t="s">
-        <v>861</v>
+        <v>851</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>863</v>
+        <v>853</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="15.75" customHeight="1">
       <c r="B48" s="2" t="s">
-        <v>864</v>
+        <v>854</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>866</v>
+        <v>856</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="15.75" customHeight="1">
       <c r="B49" s="2" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>869</v>
+        <v>859</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="15.75" customHeight="1">
       <c r="B50" s="2" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="15.75" customHeight="1">
       <c r="B51" s="2" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="15.75" customHeight="1">
       <c r="B52" s="2" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="15.75" customHeight="1">
       <c r="B53" s="2" t="s">
-        <v>879</v>
+        <v>869</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="15.75" customHeight="1">
       <c r="B54" s="2" t="s">
-        <v>880</v>
+        <v>870</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="15.75" customHeight="1">
       <c r="B55" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="15.75" customHeight="1">
       <c r="B56" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="15.75" customHeight="1">
       <c r="B57" s="2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="15.75" customHeight="1">
       <c r="B58" s="2" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="15.75" customHeight="1">
       <c r="B59" s="2" t="s">
-        <v>887</v>
+        <v>877</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="15.75" customHeight="1">
       <c r="B60" s="2" t="s">
-        <v>889</v>
+        <v>879</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="15.75" customHeight="1">
       <c r="B61" s="2" t="s">
-        <v>891</v>
+        <v>881</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="15.75" customHeight="1"/>
@@ -13898,8 +13851,11 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
+  <sortState ref="F2">
+    <sortCondition ref="F3"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Documentação/Produtos.xlsx
+++ b/Documentação/Produtos.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TCCScrolls\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCCScrolls\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{566F1CC7-F673-43A2-93A7-B5FEA856A411}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Livros" sheetId="1" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <sheet name="Mangá" sheetId="6" r:id="rId6"/>
     <sheet name="Colecionáveis" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -2908,8 +2907,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2935,6 +2934,11 @@
       <color theme="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2957,7 +2961,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2967,6 +2971,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -3247,7 +3252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4941,11 +4946,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4996,7 +5001,7 @@
       <c r="D3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -6540,16 +6545,16 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7953,17 +7958,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://store.nintendo.com.br/pokemon-let-s-go-eevee" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="E12" r:id="rId2" display="https://store.nintendo.com.br/pokemon-let-s-go-pikachu" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://store.nintendo.com.br/fifa-19" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
-    <hyperlink ref="E14" r:id="rId4" display="https://store.nintendo.com.br/kirby-star-allies" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
-    <hyperlink ref="E15" r:id="rId5" display="https://store.nintendo.com.br/donkey-kong-country-tropical-freeze" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
-    <hyperlink ref="E16" r:id="rId6" display="https://store.nintendo.com.br/hyrule-warriors-definitive-edition" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
-    <hyperlink ref="E17" r:id="rId7" display="https://store.nintendo.com.br/bayonetta-2" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
-    <hyperlink ref="E18" r:id="rId8" display="https://store.nintendo.com.br/xenoblade-chronicles-2" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
-    <hyperlink ref="E19" r:id="rId9" display="https://store.nintendo.com.br/pokken-tournament" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
-    <hyperlink ref="E20" r:id="rId10" display="https://store.nintendo.com.br/fire-emblem-warriors" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
-    <hyperlink ref="E21" r:id="rId11" display="https://store.nintendo.com.br/arms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E11" r:id="rId1" display="https://store.nintendo.com.br/pokemon-let-s-go-eevee"/>
+    <hyperlink ref="E12" r:id="rId2" display="https://store.nintendo.com.br/pokemon-let-s-go-pikachu"/>
+    <hyperlink ref="E13" r:id="rId3" display="https://store.nintendo.com.br/fifa-19"/>
+    <hyperlink ref="E14" r:id="rId4" display="https://store.nintendo.com.br/kirby-star-allies"/>
+    <hyperlink ref="E15" r:id="rId5" display="https://store.nintendo.com.br/donkey-kong-country-tropical-freeze"/>
+    <hyperlink ref="E16" r:id="rId6" display="https://store.nintendo.com.br/hyrule-warriors-definitive-edition"/>
+    <hyperlink ref="E17" r:id="rId7" display="https://store.nintendo.com.br/bayonetta-2"/>
+    <hyperlink ref="E18" r:id="rId8" display="https://store.nintendo.com.br/xenoblade-chronicles-2"/>
+    <hyperlink ref="E19" r:id="rId9" display="https://store.nintendo.com.br/pokken-tournament"/>
+    <hyperlink ref="E20" r:id="rId10" display="https://store.nintendo.com.br/fire-emblem-warriors"/>
+    <hyperlink ref="E21" r:id="rId11" display="https://store.nintendo.com.br/arms"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId12"/>
@@ -7971,7 +7976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -9475,7 +9480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0"/>
@@ -10786,7 +10791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1000"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12355,7 +12360,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -13855,7 +13860,7 @@
     <sortCondition ref="F3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Documentação/Produtos.xlsx
+++ b/Documentação/Produtos.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TCCScrolls\Documentação\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TCCScrolls\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{996DC8E0-BEC2-49D2-BDAB-E47EFCD6D66C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Livros" sheetId="1" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Mangá" sheetId="6" r:id="rId6"/>
     <sheet name="Colecionáveis" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -2907,7 +2908,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
       <sz val="11"/>
@@ -3252,7 +3253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4946,7 +4947,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6550,11 +6551,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -7958,17 +7959,17 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E11" r:id="rId1" display="https://store.nintendo.com.br/pokemon-let-s-go-eevee"/>
-    <hyperlink ref="E12" r:id="rId2" display="https://store.nintendo.com.br/pokemon-let-s-go-pikachu"/>
-    <hyperlink ref="E13" r:id="rId3" display="https://store.nintendo.com.br/fifa-19"/>
-    <hyperlink ref="E14" r:id="rId4" display="https://store.nintendo.com.br/kirby-star-allies"/>
-    <hyperlink ref="E15" r:id="rId5" display="https://store.nintendo.com.br/donkey-kong-country-tropical-freeze"/>
-    <hyperlink ref="E16" r:id="rId6" display="https://store.nintendo.com.br/hyrule-warriors-definitive-edition"/>
-    <hyperlink ref="E17" r:id="rId7" display="https://store.nintendo.com.br/bayonetta-2"/>
-    <hyperlink ref="E18" r:id="rId8" display="https://store.nintendo.com.br/xenoblade-chronicles-2"/>
-    <hyperlink ref="E19" r:id="rId9" display="https://store.nintendo.com.br/pokken-tournament"/>
-    <hyperlink ref="E20" r:id="rId10" display="https://store.nintendo.com.br/fire-emblem-warriors"/>
-    <hyperlink ref="E21" r:id="rId11" display="https://store.nintendo.com.br/arms"/>
+    <hyperlink ref="E12" r:id="rId1" display="https://store.nintendo.com.br/pokemon-let-s-go-pikachu" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="E13" r:id="rId2" display="https://store.nintendo.com.br/fifa-19" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="E14" r:id="rId3" display="https://store.nintendo.com.br/kirby-star-allies" xr:uid="{00000000-0004-0000-0200-000003000000}"/>
+    <hyperlink ref="E15" r:id="rId4" display="https://store.nintendo.com.br/donkey-kong-country-tropical-freeze" xr:uid="{00000000-0004-0000-0200-000004000000}"/>
+    <hyperlink ref="E16" r:id="rId5" display="https://store.nintendo.com.br/hyrule-warriors-definitive-edition" xr:uid="{00000000-0004-0000-0200-000005000000}"/>
+    <hyperlink ref="E17" r:id="rId6" display="https://store.nintendo.com.br/bayonetta-2" xr:uid="{00000000-0004-0000-0200-000006000000}"/>
+    <hyperlink ref="E18" r:id="rId7" display="https://store.nintendo.com.br/xenoblade-chronicles-2" xr:uid="{00000000-0004-0000-0200-000007000000}"/>
+    <hyperlink ref="E19" r:id="rId8" display="https://store.nintendo.com.br/pokken-tournament" xr:uid="{00000000-0004-0000-0200-000008000000}"/>
+    <hyperlink ref="E20" r:id="rId9" display="https://store.nintendo.com.br/fire-emblem-warriors" xr:uid="{00000000-0004-0000-0200-000009000000}"/>
+    <hyperlink ref="E21" r:id="rId10" display="https://store.nintendo.com.br/arms" xr:uid="{00000000-0004-0000-0200-00000A000000}"/>
+    <hyperlink ref="E11" r:id="rId11" display="https://store.nintendo.com.br/pokemon-let-s-go-eevee" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId12"/>
@@ -7976,10 +7977,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9480,10 +9481,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0"/>
+    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -10791,10 +10792,10 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:B1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12360,10 +12361,10 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -13860,7 +13861,7 @@
     <sortCondition ref="F3"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Documentação/Produtos.xlsx
+++ b/Documentação/Produtos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TCCScrolls\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{996DC8E0-BEC2-49D2-BDAB-E47EFCD6D66C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{1DE6BEB9-41B7-49E6-B75D-603582E96447}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Livros" sheetId="1" r:id="rId1"/>
@@ -7980,7 +7980,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9484,7 +9486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -12364,8 +12366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
